--- a/Signal/diagramme_de_bode_filtre.xlsx
+++ b/Signal/diagramme_de_bode_filtre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\BE_Laser\Signal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunae\Documents\INSA\3A\BE_Laser\Signal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFDA3AD-3A9E-43F2-8B26-C100E0D9529C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0935D0-9346-4199-B084-445FB04418A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EEDA95A4-2BB3-47A5-AE32-F3D3D0783AEE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EEDA95A4-2BB3-47A5-AE32-F3D3D0783AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -130,7 +140,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -142,6 +152,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Valeurs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> expérimentales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -167,7 +207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -298,6 +338,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>fréquence (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -332,7 +427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1676934608"/>
@@ -360,6 +455,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -388,7 +538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1631288144"/>
@@ -436,7 +586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1045,7 +1195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1343,16 +1493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346414CB-8401-4311-9FCC-CABFEA8F3EF3}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1589,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1655,7 @@
         <v>-14.403186068119139</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
